--- a/results/tables/Table A2 - National Correlations.xlsx
+++ b/results/tables/Table A2 - National Correlations.xlsx
@@ -472,25 +472,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02899716563749669</v>
+        <v>0.06906190758802347</v>
       </c>
       <c r="C2">
-        <v>0.002977912733802779</v>
+        <v>0.006700878469182527</v>
       </c>
       <c r="D2">
-        <v>-0.02241943076210917</v>
+        <v>-0.01339975128823437</v>
       </c>
       <c r="E2">
-        <v>-0.008981940378452543</v>
+        <v>0.01181535178863798</v>
       </c>
       <c r="F2">
-        <v>0.003021285722789627</v>
+        <v>0.01744727066521029</v>
       </c>
       <c r="G2">
-        <v>0.04835460782849547</v>
+        <v>0.08886168154453503</v>
       </c>
       <c r="H2">
-        <v>0.02948045970930082</v>
+        <v>0.06272962956800124</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -498,25 +498,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03057401405776754</v>
+        <v>0.1235480377592015</v>
       </c>
       <c r="C3">
-        <v>-9.782906958634729E-05</v>
+        <v>-0.01279488963659913</v>
       </c>
       <c r="D3">
-        <v>0.02561085392843602</v>
+        <v>0.1201003292137325</v>
       </c>
       <c r="E3">
-        <v>-0.06916425393194908</v>
+        <v>-0.1379372228912107</v>
       </c>
       <c r="F3">
-        <v>-0.01977176317614459</v>
+        <v>-0.006825753940976191</v>
       </c>
       <c r="G3">
-        <v>-0.0185861191925818</v>
+        <v>-0.01657656494115178</v>
       </c>
       <c r="H3">
-        <v>-0.02532178483640335</v>
+        <v>-0.01399363494807837</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -524,25 +524,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1051231466039436</v>
+        <v>0.1126071808586983</v>
       </c>
       <c r="C4">
-        <v>0.001787595299851075</v>
+        <v>0.01686823974748678</v>
       </c>
       <c r="D4">
-        <v>0.1298597645459374</v>
+        <v>0.1408750145460691</v>
       </c>
       <c r="E4">
-        <v>-0.03979499338058974</v>
+        <v>-0.01615802768447521</v>
       </c>
       <c r="F4">
-        <v>0.02030157507578265</v>
+        <v>0.02472742171459203</v>
       </c>
       <c r="G4">
-        <v>0.0200551959335603</v>
+        <v>-0.003041222882729701</v>
       </c>
       <c r="H4">
-        <v>0.02674430786649908</v>
+        <v>0.01757729576240615</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -550,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1126094142609089</v>
+        <v>0.1755818748202592</v>
       </c>
       <c r="C5">
-        <v>-0.0002779634662088352</v>
+        <v>0.05110070320851368</v>
       </c>
       <c r="D5">
-        <v>0.139792767298129</v>
+        <v>0.1433203969538875</v>
       </c>
       <c r="E5">
-        <v>-0.04999418159005976</v>
+        <v>-0.06963800408469734</v>
       </c>
       <c r="F5">
-        <v>0.02146085057455</v>
+        <v>0.03195859438634706</v>
       </c>
       <c r="G5">
-        <v>0.02379380004378016</v>
+        <v>0.005256662367677863</v>
       </c>
       <c r="H5">
-        <v>0.02976343300303121</v>
+        <v>0.0274651933506876</v>
       </c>
     </row>
   </sheetData>
@@ -612,25 +612,25 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.0005584493714452072</v>
+        <v>-0.06576709910114199</v>
       </c>
       <c r="C2">
-        <v>-0.01022999222658949</v>
+        <v>-0.008787099440069369</v>
       </c>
       <c r="D2">
-        <v>0.004074885051305633</v>
+        <v>-0.09078594657920379</v>
       </c>
       <c r="E2">
-        <v>-0.04189308989797151</v>
+        <v>-0.03055746639989331</v>
       </c>
       <c r="F2">
-        <v>-0.006075475256323647</v>
+        <v>-0.0377405080107318</v>
       </c>
       <c r="G2">
-        <v>-0.01501490908933477</v>
+        <v>-0.01104757024257014</v>
       </c>
       <c r="H2">
-        <v>-0.0126290925459629</v>
+        <v>-0.03533865680157069</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -638,25 +638,25 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.08220601512063228</v>
+        <v>-0.01479325845671552</v>
       </c>
       <c r="C3">
-        <v>0.03749479244205576</v>
+        <v>0.01595122593836769</v>
       </c>
       <c r="D3">
-        <v>0.03115442574395901</v>
+        <v>-0.02365984429959293</v>
       </c>
       <c r="E3">
-        <v>0.0148869807709056</v>
+        <v>0.02264502794491046</v>
       </c>
       <c r="F3">
-        <v>0.01475885733609805</v>
+        <v>-0.04211186173270228</v>
       </c>
       <c r="G3">
-        <v>0.04330458125866042</v>
+        <v>0.036832897958536</v>
       </c>
       <c r="H3">
-        <v>0.03550172845661677</v>
+        <v>-0.01437071393761164</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -664,25 +664,25 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.05132595067939804</v>
+        <v>0.01321042697461493</v>
       </c>
       <c r="C4">
-        <v>0.01027076022921329</v>
+        <v>-0.00889177659589478</v>
       </c>
       <c r="D4">
-        <v>0.0539408906330934</v>
+        <v>0.01615221606850801</v>
       </c>
       <c r="E4">
-        <v>-0.03068480950363331</v>
+        <v>-0.04897771543890143</v>
       </c>
       <c r="F4">
-        <v>-0.05109160509024922</v>
+        <v>-0.06468087968659136</v>
       </c>
       <c r="G4">
-        <v>-0.007556986078308217</v>
+        <v>-0.01349044831124451</v>
       </c>
       <c r="H4">
-        <v>-0.04439324813212758</v>
+        <v>-0.05759485479395377</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -690,25 +690,25 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.04418700607514119</v>
+        <v>-0.01153718359787574</v>
       </c>
       <c r="C5">
-        <v>0.006918898321477645</v>
+        <v>0.002848242458064886</v>
       </c>
       <c r="D5">
-        <v>0.03204549457354302</v>
+        <v>-0.0746062207717267</v>
       </c>
       <c r="E5">
-        <v>0.05115500462294229</v>
+        <v>-0.0385243414055164</v>
       </c>
       <c r="F5">
-        <v>0.03883669480207017</v>
+        <v>0.02142015561130815</v>
       </c>
       <c r="G5">
-        <v>-0.01237343514118395</v>
+        <v>0.0323620750908324</v>
       </c>
       <c r="H5">
-        <v>0.02206250645716302</v>
+        <v>0.03420493034820522</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -716,25 +716,25 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.05071449785626801</v>
+        <v>0.200189396502134</v>
       </c>
       <c r="C6">
-        <v>0.001026152518326158</v>
+        <v>0.03956262747432405</v>
       </c>
       <c r="D6">
-        <v>0.02156065779466107</v>
+        <v>0.1175387533558636</v>
       </c>
       <c r="E6">
-        <v>-0.02414905428206694</v>
+        <v>-0.07288586787670498</v>
       </c>
       <c r="F6">
-        <v>0.0109797346630915</v>
+        <v>-0.06807138733526005</v>
       </c>
       <c r="G6">
-        <v>0.006909999069541877</v>
+        <v>0.01599238069990812</v>
       </c>
       <c r="H6">
-        <v>0.01231841264959297</v>
+        <v>-0.04431712538701876</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -742,25 +742,25 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.03978223750757679</v>
+        <v>0.106708643162663</v>
       </c>
       <c r="C7">
-        <v>0.001857428345645314</v>
+        <v>0.046792742277452</v>
       </c>
       <c r="D7">
-        <v>0.02845632890990003</v>
+        <v>0.1306822438256283</v>
       </c>
       <c r="E7">
-        <v>0.01584861645962203</v>
+        <v>0.09583164784508888</v>
       </c>
       <c r="F7">
-        <v>-0.02414724139242512</v>
+        <v>0.04415312024750843</v>
       </c>
       <c r="G7">
-        <v>-0.0006172733832038121</v>
+        <v>0.07081218879498249</v>
       </c>
       <c r="H7">
-        <v>-0.01938199961661096</v>
+        <v>0.07162692755588411</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -768,25 +768,25 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03757618501896599</v>
+        <v>0.006646566278635514</v>
       </c>
       <c r="C8">
-        <v>0.03161541049118202</v>
+        <v>-0.008349859899321237</v>
       </c>
       <c r="D8">
-        <v>0.03093235839365597</v>
+        <v>-0.01138153883224886</v>
       </c>
       <c r="E8">
-        <v>0.01688225756665592</v>
+        <v>-0.02175563404838564</v>
       </c>
       <c r="F8">
-        <v>0.04810196387766436</v>
+        <v>0.01040639053673629</v>
       </c>
       <c r="G8">
-        <v>0.040026667958612</v>
+        <v>0.01627105855745619</v>
       </c>
       <c r="H8">
-        <v>0.05774074943092617</v>
+        <v>0.01691494895153987</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -794,25 +794,25 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.04005199671756591</v>
+        <v>0.03207405487280399</v>
       </c>
       <c r="C9">
-        <v>0.05462495042551941</v>
+        <v>0.02225838123422871</v>
       </c>
       <c r="D9">
-        <v>0.03576666469421581</v>
+        <v>0.001419667246105682</v>
       </c>
       <c r="E9">
-        <v>0.03549241645061186</v>
+        <v>-0.005656900207542888</v>
       </c>
       <c r="F9">
-        <v>0.02686448278997442</v>
+        <v>0.01698829021694366</v>
       </c>
       <c r="G9">
-        <v>0.04054229105593322</v>
+        <v>0.028889734375663</v>
       </c>
       <c r="H9">
-        <v>0.04228350247350138</v>
+        <v>0.0287301800787011</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -820,25 +820,25 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.3128250768435586</v>
+        <v>0.3462170123902716</v>
       </c>
       <c r="C10">
-        <v>0.09241941022509101</v>
+        <v>0.05058854589861685</v>
       </c>
       <c r="D10">
-        <v>0.3165958410867063</v>
+        <v>0.2863210986662199</v>
       </c>
       <c r="E10">
-        <v>0.04848305323130393</v>
+        <v>-0.03747947129969278</v>
       </c>
       <c r="F10">
-        <v>-0.01153443669382737</v>
+        <v>-0.03442688060510674</v>
       </c>
       <c r="G10">
-        <v>0.01550417209629251</v>
+        <v>0.05389219916088715</v>
       </c>
       <c r="H10">
-        <v>-0.000633114911261023</v>
+        <v>0.002328577055236952</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -846,25 +846,25 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.04084005838185602</v>
+        <v>0.04869385257963558</v>
       </c>
       <c r="C11">
-        <v>0.04319617809401661</v>
+        <v>0.02005742311605626</v>
       </c>
       <c r="D11">
-        <v>0.06250716273374801</v>
+        <v>0.01835412956022377</v>
       </c>
       <c r="E11">
-        <v>-0.0125747864033379</v>
+        <v>-0.01536451546674288</v>
       </c>
       <c r="F11">
-        <v>-0.02166744338181809</v>
+        <v>0.02019071261526032</v>
       </c>
       <c r="G11">
-        <v>-0.008513552795953363</v>
+        <v>0.01921320833837182</v>
       </c>
       <c r="H11">
-        <v>-0.02150207460305356</v>
+        <v>0.02609969898586041</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -872,25 +872,25 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.04944129167025126</v>
+        <v>0.1335746130481031</v>
       </c>
       <c r="C12">
-        <v>0.00580776135594591</v>
+        <v>0.02671449644478896</v>
       </c>
       <c r="D12">
-        <v>0.003422541211130226</v>
+        <v>0.1264142301861885</v>
       </c>
       <c r="E12">
-        <v>-0.02101541913633797</v>
+        <v>0.004116123270322946</v>
       </c>
       <c r="F12">
-        <v>-0.02093696871991064</v>
+        <v>0.01240325952805822</v>
       </c>
       <c r="G12">
-        <v>0.005762656599647842</v>
+        <v>0.02116251868296558</v>
       </c>
       <c r="H12">
-        <v>-0.01207959897880605</v>
+        <v>0.02110359601679534</v>
       </c>
     </row>
   </sheetData>
